--- a/conferences/siberia-2019/results.xlsx
+++ b/conferences/siberia-2019/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cache size" sheetId="1" r:id="rId1"/>
@@ -196,7 +196,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -229,7 +229,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,8 +677,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="725291352"/>
-        <c:axId val="195627808"/>
+        <c:axId val="893257368"/>
+        <c:axId val="893256584"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -691,8 +691,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="896057248"/>
-        <c:axId val="896058424"/>
+        <c:axId val="893258152"/>
+        <c:axId val="893259720"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -1093,7 +1093,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="725291352"/>
+        <c:axId val="893257368"/>
         <c:scaling>
           <c:logBase val="4"/>
           <c:orientation val="minMax"/>
@@ -1218,13 +1218,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195627808"/>
+        <c:crossAx val="893256584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="8"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195627808"/>
+        <c:axId val="893256584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="512"/>
@@ -1348,13 +1348,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="725291352"/>
+        <c:crossAx val="893257368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="64"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="896058424"/>
+        <c:axId val="893259720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="144"/>
@@ -1465,13 +1465,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="896057248"/>
+        <c:crossAx val="893258152"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="16"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="896057248"/>
+        <c:axId val="893258152"/>
         <c:scaling>
           <c:logBase val="4"/>
           <c:orientation val="minMax"/>
@@ -1482,7 +1482,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="896058424"/>
+        <c:crossAx val="893259720"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1569,8 +1569,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="901303368"/>
-        <c:axId val="735558432"/>
+        <c:axId val="893258544"/>
+        <c:axId val="893259328"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -1959,12 +1959,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="735555296"/>
-        <c:axId val="735558824"/>
+        <c:axId val="893261288"/>
+        <c:axId val="893260896"/>
         <c:extLst/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="901303368"/>
+        <c:axId val="893258544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1024"/>
@@ -2070,7 +2070,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2089,13 +2089,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="735558432"/>
+        <c:crossAx val="893259328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="64"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="735558432"/>
+        <c:axId val="893259328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="256"/>
@@ -2219,13 +2219,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="901303368"/>
+        <c:crossAx val="893258544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="32"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="735558824"/>
+        <c:axId val="893260896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
@@ -2336,13 +2336,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="735555296"/>
+        <c:crossAx val="893261288"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="8"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="735555296"/>
+        <c:axId val="893261288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2352,7 +2352,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="735558824"/>
+        <c:crossAx val="893260896"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3872,8 +3872,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>240635</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>65266</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4186,7 +4186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -4240,7 +4240,7 @@
         <v>432810000000</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D66" si="0">C3/(1024*1024*1024)</f>
+        <f t="shared" ref="D3:D54" si="0">C3/(1024*1024*1024)</f>
         <v>403.08572351932526</v>
       </c>
       <c r="E3" s="1">
@@ -5172,8 +5172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5226,7 +5226,7 @@
         <v>21709600000</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D54" si="0">C3/(1024*1024*1024)</f>
+        <f t="shared" ref="D3:D18" si="0">C3/(1024*1024*1024)</f>
         <v>20.218640565872192</v>
       </c>
       <c r="E3" s="1">
